--- a/docs/experiments.xlsx
+++ b/docs/experiments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>inceptionv3</t>
   </si>
@@ -25,12 +25,6 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>datasetA</t>
-  </si>
-  <si>
-    <t>datasetB</t>
-  </si>
-  <si>
     <t>adam_default</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>pick best</t>
   </si>
   <si>
-    <t>cont with B</t>
-  </si>
-  <si>
     <t>steps4000</t>
   </si>
   <si>
@@ -95,6 +86,9 @@
   </si>
   <si>
     <t>tensorboard images</t>
+  </si>
+  <si>
+    <t>LearningRate=1e-4</t>
   </si>
 </sst>
 </file>
@@ -436,11 +430,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -451,135 +443,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="G18" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
